--- a/train/2/time_send.xlsx
+++ b/train/2/time_send.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Math\train\2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8384A30-3AD0-4C86-8781-30ADB9330692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="29325"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="38580" windowHeight="21780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,14 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,352 +180,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -549,251 +217,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -801,61 +227,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1140,21 +522,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1182,13 +564,13 @@
         <v>0.188</v>
       </c>
       <c r="D2">
-        <v>0.565</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1196,16 +578,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D3">
-        <v>1.092</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1213,16 +595,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D4">
-        <v>0.635</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1239,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1247,16 +629,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D6">
-        <v>0.281</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1267,13 +649,13 @@
         <v>0.4</v>
       </c>
       <c r="D7">
-        <v>0.823</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1281,16 +663,16 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.393</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D8">
-        <v>0.384</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1298,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.568</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D9">
         <v>0.3</v>
@@ -1307,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1318,13 +700,13 @@
         <v>0.622</v>
       </c>
       <c r="D10">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1332,16 +714,16 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.332</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D11">
-        <v>0.613</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1349,16 +731,16 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D12">
-        <v>0.346</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1366,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="D13">
         <v>0.71</v>
@@ -1375,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1386,13 +768,13 @@
         <v>0.153</v>
       </c>
       <c r="D14">
-        <v>0.972</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1403,13 +785,13 @@
         <v>0.217</v>
       </c>
       <c r="D15">
-        <v>0.662</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1417,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D16">
         <v>0.4</v>
@@ -1426,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1434,16 +816,16 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0.481</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D17">
-        <v>0.639</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1451,16 +833,16 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>0.522</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D18">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1468,16 +850,16 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D19">
-        <v>0.687</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1488,13 +870,13 @@
         <v>0.108</v>
       </c>
       <c r="D20">
-        <v>0.646</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1502,16 +884,16 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>0.853</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D21">
-        <v>0.684</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1519,7 +901,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.468</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D22">
         <v>0.44</v>
@@ -1528,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1536,16 +918,16 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D23">
-        <v>0.572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1553,16 +935,16 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.718</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="D24">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1573,13 +955,13 @@
         <v>0.876</v>
       </c>
       <c r="D25">
-        <v>0.198</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1587,16 +969,16 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.722</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="D26">
-        <v>0.709</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1604,16 +986,16 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D27">
-        <v>0.662</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1630,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1638,16 +1020,16 @@
         <v>15</v>
       </c>
       <c r="C29">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D29">
-        <v>0.331</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1655,16 +1037,16 @@
         <v>27</v>
       </c>
       <c r="C30">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D30">
-        <v>0.659</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1672,16 +1054,16 @@
         <v>15</v>
       </c>
       <c r="C31">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D31">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1689,7 +1071,7 @@
         <v>28</v>
       </c>
       <c r="C32">
-        <v>0.812</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="D32">
         <v>1.151</v>
@@ -1698,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1706,7 +1088,7 @@
         <v>29</v>
       </c>
       <c r="C33">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D33">
         <v>0.439</v>
@@ -1715,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1723,16 +1105,16 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D34">
-        <v>0.682</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1740,7 +1122,7 @@
         <v>30</v>
       </c>
       <c r="C35">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D35">
         <v>1.115</v>
@@ -1749,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1757,7 +1139,7 @@
         <v>31</v>
       </c>
       <c r="C36">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D36">
         <v>0.375</v>
@@ -1766,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1774,16 +1156,16 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>0.677</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="D37">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1791,16 +1173,16 @@
         <v>29</v>
       </c>
       <c r="C38">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D38">
-        <v>0.551</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1808,16 +1190,16 @@
         <v>32</v>
       </c>
       <c r="C39">
-        <v>0.528</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D39">
-        <v>0.993</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1825,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="C40">
-        <v>0.332</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D40">
         <v>0.42</v>
@@ -1834,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1842,7 +1224,7 @@
         <v>14</v>
       </c>
       <c r="C41">
-        <v>0.799</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="D41">
         <v>0.7</v>
@@ -1851,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1859,7 +1241,7 @@
         <v>34</v>
       </c>
       <c r="C42">
-        <v>0.299</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D42">
         <v>0.44</v>
@@ -1868,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1879,13 +1261,13 @@
         <v>0.109</v>
       </c>
       <c r="D43">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1893,16 +1275,16 @@
         <v>35</v>
       </c>
       <c r="C44">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D44">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1913,13 +1295,13 @@
         <v>0.121</v>
       </c>
       <c r="D45">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1936,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1944,7 +1326,7 @@
         <v>27</v>
       </c>
       <c r="C47">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D47">
         <v>0.08</v>
@@ -1953,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1961,16 +1343,16 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="D48">
-        <v>0.616</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1978,16 +1360,16 @@
         <v>36</v>
       </c>
       <c r="C49">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D49">
-        <v>0.679</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1995,16 +1377,16 @@
         <v>16</v>
       </c>
       <c r="C50">
-        <v>0.572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D50">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2012,16 +1394,16 @@
         <v>37</v>
       </c>
       <c r="C51">
-        <v>0.409</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D51">
-        <v>0.164</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2029,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="C52">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D52">
-        <v>0.793</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2049,13 +1431,13 @@
         <v>0.622</v>
       </c>
       <c r="D53">
-        <v>0.987</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2063,16 +1445,16 @@
         <v>38</v>
       </c>
       <c r="C54">
-        <v>0.564</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D54">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2089,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2097,16 +1479,16 @@
         <v>24</v>
       </c>
       <c r="C56">
-        <v>0.527</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D56">
-        <v>0.343</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2114,16 +1496,16 @@
         <v>18</v>
       </c>
       <c r="C57">
-        <v>0.489</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D57">
-        <v>0.527</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2131,16 +1513,16 @@
         <v>13</v>
       </c>
       <c r="C58">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D58">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2148,16 +1530,16 @@
         <v>23</v>
       </c>
       <c r="C59">
-        <v>0.465</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D59">
-        <v>0.507</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2168,13 +1550,13 @@
         <v>0.249</v>
       </c>
       <c r="D60">
-        <v>0.725</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2191,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2199,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="C62">
-        <v>0.825</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D62">
         <v>1.044</v>
@@ -2208,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2216,16 +1598,16 @@
         <v>40</v>
       </c>
       <c r="C63">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D63">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2242,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2250,16 +1632,16 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>0.367</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D65">
-        <v>0.701</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2267,16 +1649,16 @@
         <v>9</v>
       </c>
       <c r="C66">
-        <v>0.099</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D66">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2293,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2301,16 +1683,16 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D68">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2318,7 +1700,7 @@
         <v>41</v>
       </c>
       <c r="C69">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D69">
         <v>0.39</v>
@@ -2327,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2335,16 +1717,16 @@
         <v>42</v>
       </c>
       <c r="C70">
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="D70">
-        <v>0.676</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2352,16 +1734,16 @@
         <v>35</v>
       </c>
       <c r="C71">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D71">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2372,13 +1754,13 @@
         <v>0.379</v>
       </c>
       <c r="D72">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2386,16 +1768,16 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="D73">
-        <v>0.864</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2403,16 +1785,16 @@
         <v>28</v>
       </c>
       <c r="C74">
-        <v>0.213</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D74">
-        <v>0.704</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2420,16 +1802,16 @@
         <v>43</v>
       </c>
       <c r="C75">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="D75">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -2437,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>0.342</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D76">
         <v>1.002</v>
@@ -2446,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2454,16 +1836,16 @@
         <v>24</v>
       </c>
       <c r="C77">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D77">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -2474,13 +1856,13 @@
         <v>0.65</v>
       </c>
       <c r="D78">
-        <v>0.281</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2488,16 +1870,16 @@
         <v>44</v>
       </c>
       <c r="C79">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D79">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2508,13 +1890,13 @@
         <v>0.37</v>
       </c>
       <c r="D80">
-        <v>0.698</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2522,16 +1904,16 @@
         <v>38</v>
       </c>
       <c r="C81">
-        <v>0.606</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D81">
-        <v>0.092</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2539,16 +1921,16 @@
         <v>42</v>
       </c>
       <c r="C82">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D82">
-        <v>0.651</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2556,16 +1938,16 @@
         <v>44</v>
       </c>
       <c r="C83">
-        <v>0.703</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="D83">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2573,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="C84">
-        <v>0.688</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="D84">
-        <v>0.804</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2590,7 +1972,7 @@
         <v>45</v>
       </c>
       <c r="C85">
-        <v>0.524</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D85">
         <v>0.73</v>
@@ -2599,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2607,7 +1989,7 @@
         <v>21</v>
       </c>
       <c r="C86">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D86">
         <v>0.89</v>
@@ -2616,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2624,16 +2006,16 @@
         <v>32</v>
       </c>
       <c r="C87">
-        <v>0.303</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D87">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2644,13 +2026,13 @@
         <v>0.33</v>
       </c>
       <c r="D88">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2658,16 +2040,16 @@
         <v>27</v>
       </c>
       <c r="C89">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D89">
-        <v>0.594</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2678,13 +2060,13 @@
         <v>0.71</v>
       </c>
       <c r="D90">
-        <v>0.528</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2695,13 +2077,13 @@
         <v>0.437</v>
       </c>
       <c r="D91">
-        <v>0.699</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2709,16 +2091,16 @@
         <v>27</v>
       </c>
       <c r="C92">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D92">
-        <v>0.851</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2726,16 +2108,16 @@
         <v>23</v>
       </c>
       <c r="C93">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D93">
-        <v>0.641</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2743,16 +2125,16 @@
         <v>5</v>
       </c>
       <c r="C94">
-        <v>0.573</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D94">
-        <v>0.656</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2763,13 +2145,13 @@
         <v>0.44</v>
       </c>
       <c r="D95">
-        <v>0.655</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2777,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="C96">
-        <v>0.406</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="D96">
         <v>0.89</v>
@@ -2786,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2794,7 +2176,7 @@
         <v>25</v>
       </c>
       <c r="C97">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D97">
         <v>0.43</v>
@@ -2803,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2811,16 +2193,16 @@
         <v>21</v>
       </c>
       <c r="C98">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D98">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2838,7 +2220,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>